--- a/src/main/resources/userLog_template.xlsx
+++ b/src/main/resources/userLog_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\SpringBoot-init\springboot-init\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC481D5C-FB71-4990-AE7D-D1073C418E6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECFEFB-68BC-4874-B68D-4A43CFE05DD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32772" yWindow="32772" windowWidth="17256" windowHeight="5592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,14 +31,6 @@
   </si>
   <si>
     <t>用户角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,13 +96,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,42 +417,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
     <col min="4" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
+    <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
